--- a/STATS/Delhi Capitals/Anrich Nortje.xlsx
+++ b/STATS/Delhi Capitals/Anrich Nortje.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,13 +443,13 @@
         <v>Anrich Nortje</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>33.33</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
     </row>
     <row r="4">
@@ -472,13 +472,13 @@
         <v>Anrich Nortje</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -487,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>-</v>
+        <v>33.33</v>
       </c>
       <c r="H4" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
     </row>
     <row r="5">
@@ -501,14 +501,14 @@
         <v>Anrich Nortje</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
         <v>3</v>
       </c>
-      <c r="D5" t="str">
-        <v>2</v>
-      </c>
       <c r="E5" t="str">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>150.00</v>
+        <v>33.33</v>
       </c>
       <c r="H5" t="str">
         <v>Delhi Capitals</v>
@@ -530,33 +530,178 @@
         <v>Anrich Nortje</v>
       </c>
       <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>-</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>-</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B10">
         <v>59</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C10" t="str">
         <v>3</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D10" t="str">
         <v>1</v>
       </c>
-      <c r="E6" t="str">
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
         <v>300.00</v>
       </c>
-      <c r="H6" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H10" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>300.00</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="I11" t="str">
         <v>Kings XI Punjab</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>